--- a/output.xlsx
+++ b/output.xlsx
@@ -1,44 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1\naveen\Project\Final\scrap example\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD66A8B-EB19-4C52-8493-46CFA9B0692E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
     <sheet name="Responses" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Domain</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
+  <numFmts count="1">
+    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+  </numFmts>
+  <fonts count="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -66,23 +42,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -407,25 +374,113 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Domain</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Keywords</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Title</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Output</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>http://cloudhiking.com</v>
+      </c>
+      <c r="B2" t="str">
+        <v>guides</v>
+      </c>
+      <c r="C2" t="str">
+        <v>cloudhiking - online trail guides and maps</v>
+      </c>
+      <c r="D2" t="str">
+        <v>[cloudhiking - online trail guides and maps] (http://cloudhiking.com)</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>http://finchglowholidays.com</v>
+      </c>
+      <c r="B3" t="str">
+        <v>destination,destinations</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Finchglow Holidays – Book flights, hotels &amp; accommodation, visit top destinations etc. with us</v>
+      </c>
+      <c r="D3" t="str">
+        <v>[Finchglow Holidays – Book flights, hotels &amp; accommodation, visit top destinations etc. with us] (http://finchglowholidays.com)</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>http://bristol-hotels.net</v>
+      </c>
+      <c r="B4" t="str">
+        <v>accommodations</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Bristol hotels &amp; apartments, all accommodations in Bristol</v>
+      </c>
+      <c r="D4" t="str">
+        <v>[Bristol hotels &amp; apartments, all accommodations in Bristol] (http://bristol-hotels.net)</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>http://eddingtonhouseinn.com</v>
+      </c>
+      <c r="B5" t="str">
+        <v>accommodations</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Eddington House Inn - Bennington Vermont Bed and Breakfast, Bennington College lodging accommodations, North Bennington Village, Vermont Spa Getaway,VT Wine Tasting Dinner Packages, Bennington College Visits</v>
+      </c>
+      <c r="D5" t="str">
+        <v>[Eddington House Inn - Bennington Vermont Bed and Breakfast, Bennington College lodging accommodations, North Bennington Village, Vermont Spa Getaway,VT Wine Tasting Dinner Packages, Bennington College Visits] (http://eddingtonhouseinn.com)</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>http://floridatraveler.org</v>
+      </c>
+      <c r="B6" t="str">
+        <v>travel</v>
+      </c>
+      <c r="C6" t="str">
+        <v>floridatraveler | Take a trip to Florida: present, past, and future!</v>
+      </c>
+      <c r="D6" t="str">
+        <v>[floridatraveler | Take a trip to Florida: present, past, and future!] (http://floridatraveler.org)</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>http://cascadiakids.com</v>
+      </c>
+      <c r="B7" t="str">
+        <v>travel</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Cascadia Kids : Family travel in the Pacific Northwest and BC</v>
+      </c>
+      <c r="D7" t="str">
+        <v>[Cascadia Kids : Family travel in the Pacific Northwest and BC] (http://cascadiakids.com)</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1" numberStoredAsText="1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D7"/>
   </ignoredErrors>
 </worksheet>
 </file>